--- a/data/panelapp/uk/Severe microcephaly.xlsx
+++ b/data/panelapp/uk/Severe microcephaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982132</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982144</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982147</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982150</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982153</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982156</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982158</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982161</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982163</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982166</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982168</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982171</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982174</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982176</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982179</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982182</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982185</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982187</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982190</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982193</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982195</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982198</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982200</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982203</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982205</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982208</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982211</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982213</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982216</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982218</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982221</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982223</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982226</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982229</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982231</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982234</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982236</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982239</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982241</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982244</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982247</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982249</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982252</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982254</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982257</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982259</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982262</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982265</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982267</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982270</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982272</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982275</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982277</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982280</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982283</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982285</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982288</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982291</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982293</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982296</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982298</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982301</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982303</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982306</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982309</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982312</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982315</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982318</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982320</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982323</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982325</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982328</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982330</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982333</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982336</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982338</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982342</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982346</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982348</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982351</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982353</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982356</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982358</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982361</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982363</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982366</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982368</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982371</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982373</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982376</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982378</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982381</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982385</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982387</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982390</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982393</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982395</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982398</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982400</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982403</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982405</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982408</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982410</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982413</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982415</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982418</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982420</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982423</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982427</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982430</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982433</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982435</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982438</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982440</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982443</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982445</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982448</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982450</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982453</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982455</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982458</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982460</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982463</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Severe microcephaly</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982465</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HIST1H4C</t>
+          <t>GTF2E2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>histone cluster 1 H4 family member c</t>
+          <t>general transcription factor IIE subunit 2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982468</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>HIST1H4C</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>histone cluster 1 H4 family member c</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982470</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KIF14</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>kinesin family member 14</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982473</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LAGE3</t>
+          <t>KIF14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>L antigen family member 3</t>
+          <t>kinesin family member 14</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982475</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LMNB1</t>
+          <t>LAGE3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>lamin B1</t>
+          <t>L antigen family member 3</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982480</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LMNB2</t>
+          <t>LMNB1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>lamin B2</t>
+          <t>lamin B1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982483</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MCM7</t>
+          <t>LMNB2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>minichromosome maintenance complex component 7</t>
+          <t>lamin B2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982485</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MED17</t>
+          <t>MCM7</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>mediator complex subunit 17</t>
+          <t>minichromosome maintenance complex component 7</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982488</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>METTL5</t>
+          <t>MED17</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>methyltransferase like 5</t>
+          <t>mediator complex subunit 17</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982490</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MINPP1</t>
+          <t>METTL5</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>multiple inositol-polyphosphate phosphatase 1</t>
+          <t>methyltransferase like 5</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982493</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MORC2</t>
+          <t>MINPP1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MORC family CW-type zinc finger 2</t>
+          <t>multiple inositol-polyphosphate phosphatase 1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982495</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MPLKIP</t>
+          <t>MORC2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>M-phase specific PLK1 interacting protein</t>
+          <t>MORC family CW-type zinc finger 2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982498</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MRE11</t>
+          <t>MPLKIP</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MRE11 homolog, double strand break repair nuclease</t>
+          <t>M-phase specific PLK1 interacting protein</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982500</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NAA20</t>
+          <t>MRE11</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>N(alpha)-acetyltransferase 20, NatB catalytic subunit</t>
+          <t>MRE11 homolog, double strand break repair nuclease</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982503</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NARS</t>
+          <t>NAA20</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>asparaginyl-tRNA synthetase</t>
+          <t>N(alpha)-acetyltransferase 20, NatB catalytic subunit</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982505</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NCAPD2</t>
+          <t>NARS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>non-SMC condensin I complex subunit D2</t>
+          <t>asparaginyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982508</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NCAPD3</t>
+          <t>NCAPD2</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>non-SMC condensin II complex subunit D3</t>
+          <t>non-SMC condensin I complex subunit D2</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982511</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NSD2</t>
+          <t>NCAPD3</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>nuclear receptor binding SET domain protein 2</t>
+          <t>non-SMC condensin II complex subunit D3</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982513</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NUP107</t>
+          <t>NSD2</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>nucleoporin 107</t>
+          <t>nuclear receptor binding SET domain protein 2</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982516</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NUP188</t>
+          <t>NUP107</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>nucleoporin 188</t>
+          <t>nucleoporin 107</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982518</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>OSGEP</t>
+          <t>NUP188</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>O-sialoglycoprotein endopeptidase</t>
+          <t>nucleoporin 188</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982521</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PALB2</t>
+          <t>OSGEP</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>partner and localizer of BRCA2</t>
+          <t>O-sialoglycoprotein endopeptidase</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982523</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PCDH12</t>
+          <t>PALB2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>protocadherin 12</t>
+          <t>partner and localizer of BRCA2</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982526</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PCDHGC4</t>
+          <t>PCDH12</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>protocadherin gamma subfamily C, 4</t>
+          <t>protocadherin 12</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982529</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PDCD6IP</t>
+          <t>PCDHGC4</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>programmed cell death 6 interacting protein</t>
+          <t>protocadherin gamma subfamily C, 4</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982531</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>POGZ</t>
+          <t>PDCD6IP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>pogo transposable element derived with ZNF domain</t>
+          <t>programmed cell death 6 interacting protein</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982534</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PPIL1</t>
+          <t>POGZ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>peptidylprolyl isomerase like 1</t>
+          <t>pogo transposable element derived with ZNF domain</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982537</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PPP1R15B</t>
+          <t>PPIL1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 15B</t>
+          <t>peptidylprolyl isomerase like 1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982540</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PRIM1</t>
+          <t>PPP1R15B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DNA primase subunit 1</t>
+          <t>protein phosphatase 1 regulatory subunit 15B</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982542</t>
         </is>
       </c>
     </row>
@@ -4286,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PTPN23</t>
+          <t>PRIM1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>protein tyrosine phosphatase, non-receptor type 23</t>
+          <t>DNA primase subunit 1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4302,6 +5072,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982545</t>
         </is>
       </c>
     </row>
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PUF60</t>
+          <t>PTPN23</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>poly(U) binding splicing factor 60</t>
+          <t>protein tyrosine phosphatase, non-receptor type 23</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982547</t>
         </is>
       </c>
     </row>
@@ -4336,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PUS7</t>
+          <t>PUF60</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>pseudouridylate synthase 7 (putative)</t>
+          <t>poly(U) binding splicing factor 60</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4352,6 +5132,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982550</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>QARS</t>
+          <t>PUS7</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>glutaminyl-tRNA synthetase</t>
+          <t>pseudouridylate synthase 7 (putative)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982552</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RAD50</t>
+          <t>QARS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RAD50 double strand break repair protein</t>
+          <t>glutaminyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982555</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>RAD51C</t>
+          <t>RAD50</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RAD51 paralog C</t>
+          <t>RAD50 double strand break repair protein</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982557</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>RMI1</t>
+          <t>RAD51C</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RecQ mediated genome instability 1</t>
+          <t>RAD51 paralog C</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982560</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RRP7A</t>
+          <t>RMI1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ribosomal RNA processing 7 homolog A</t>
+          <t>RecQ mediated genome instability 1</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982562</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SASS6</t>
+          <t>RRP7A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SAS-6 centriolar assembly protein</t>
+          <t>ribosomal RNA processing 7 homolog A</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982565</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SLC1A4</t>
+          <t>SASS6</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>solute carrier family 1 member 4</t>
+          <t>SAS-6 centriolar assembly protein</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982568</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SMARCA5</t>
+          <t>SLC1A4</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 5</t>
+          <t>solute carrier family 1 member 4</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982570</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SMG8</t>
+          <t>SMARCA5</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SMG8, nonsense mediated mRNA decay factor</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982573</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SVBP</t>
+          <t>SMG8</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>small vasohibin binding protein</t>
+          <t>SMG8, nonsense mediated mRNA decay factor</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982575</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TAF13</t>
+          <t>SVBP</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TATA-box binding protein associated factor 13</t>
+          <t>small vasohibin binding protein</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982578</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TMX2</t>
+          <t>TAF13</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>thioredoxin related transmembrane protein 2</t>
+          <t>TATA-box binding protein associated factor 13</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982580</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TNPO2</t>
+          <t>TMX2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>transportin 2</t>
+          <t>thioredoxin related transmembrane protein 2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982583</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TP53RK</t>
+          <t>TNPO2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TP53 regulating kinase</t>
+          <t>transportin 2</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982585</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRAPPC12</t>
+          <t>TP53RK</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 12</t>
+          <t>TP53 regulating kinase</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982587</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRAPPC6B</t>
+          <t>TRAPPC12</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 6B</t>
+          <t>trafficking protein particle complex 12</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982590</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRAPPC9</t>
+          <t>TRAPPC6B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 9</t>
+          <t>trafficking protein particle complex 6B</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982594</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRIO</t>
+          <t>TRAPPC9</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>trio Rho guanine nucleotide exchange factor</t>
+          <t>trafficking protein particle complex 9</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982597</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRIP13</t>
+          <t>TRIO</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>thyroid hormone receptor interactor 13</t>
+          <t>trio Rho guanine nucleotide exchange factor</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982599</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TSEN15</t>
+          <t>TRIP13</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 15</t>
+          <t>thyroid hormone receptor interactor 13</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982602</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TSEN54</t>
+          <t>TSEN15</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 54</t>
+          <t>tRNA splicing endonuclease subunit 15</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982604</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TTC5</t>
+          <t>TSEN54</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 5</t>
+          <t>tRNA splicing endonuclease subunit 54</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982606</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TUBGCP2</t>
+          <t>TTC5</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>tubulin gamma complex associated protein 2</t>
+          <t>tetratricopeptide repeat domain 5</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982609</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>UBE3A</t>
+          <t>TUBGCP2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3A</t>
+          <t>tubulin gamma complex associated protein 2</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982611</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>UGP2</t>
+          <t>UBE3A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>UDP-glucose pyrophosphorylase 2</t>
+          <t>ubiquitin protein ligase E3A</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982614</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UNC80</t>
+          <t>UGP2</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>unc-80 homolog, NALCN channel complex subunit</t>
+          <t>UDP-glucose pyrophosphorylase 2</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982616</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>UNC80</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>unc-80 homolog, NALCN channel complex subunit</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982619</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>WDR37</t>
+          <t>VPS50</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WD repeat domain 37</t>
+          <t>VPS50, EARP/GARPII complex subunit</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982621</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>WDR4</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>WD repeat domain 4</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982624</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>YIF1B</t>
+          <t>WDR37</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Yip1 interacting factor homolog B, membrane trafficking protein</t>
+          <t>WD repeat domain 37</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982627</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>YIPF5</t>
+          <t>WDR4</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Yip1 domain family member 5</t>
+          <t>WD repeat domain 4</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982629</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ZNF335</t>
+          <t>YIF1B</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>zinc finger protein 335</t>
+          <t>Yip1 interacting factor homolog B, membrane trafficking protein</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982632</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ZNF526</t>
+          <t>YIPF5</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>zinc finger protein 526</t>
+          <t>Yip1 domain family member 5</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982634</t>
         </is>
       </c>
     </row>
@@ -5186,22 +6136,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ATRIP</t>
+          <t>ZNF335</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ATR interacting protein</t>
+          <t>zinc finger protein 335</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982637</t>
         </is>
       </c>
     </row>
@@ -5211,22 +6166,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CDC6</t>
+          <t>ZNF526</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>cell division cycle 6</t>
+          <t>zinc finger protein 526</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982639</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CDK6</t>
+          <t>ARF3</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>cyclin dependent kinase 6</t>
+          <t>ADP ribosylation factor 3</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982642</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CENPE</t>
+          <t>ATRIP</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>centromere protein E</t>
+          <t>ATR interacting protein</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982644</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>COPB2</t>
+          <t>CDC6</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>coatomer protein complex subunit beta 2</t>
+          <t>cell division cycle 6</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982647</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EOMES</t>
+          <t>CDK6</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>eomesodermin</t>
+          <t>cyclin dependent kinase 6</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982649</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FANCM</t>
+          <t>CENPE</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group M</t>
+          <t>centromere protein E</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982652</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>HIKESHI</t>
+          <t>COPB2</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Hikeshi, heat shock protein nuclear import factor</t>
+          <t>coatomer protein complex subunit beta 2</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982655</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NCAPH</t>
+          <t>EOMES</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>non-SMC condensin I complex subunit H</t>
+          <t>eomesodermin</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982657</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NIN</t>
+          <t>FANCM</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ninein</t>
+          <t>Fanconi anemia complementation group M</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982660</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NSMCE2</t>
+          <t>HIKESHI</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NSE2/MMS21 homolog, SMC5-SMC6 complex SUMO ligase</t>
+          <t>Hikeshi, heat shock protein nuclear import factor</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982662</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NUF2</t>
+          <t>NCAPH</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NUF2, NDC80 kinetochore complex component</t>
+          <t>non-SMC condensin I complex subunit H</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982665</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PCLO</t>
+          <t>NIN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>piccolo presynaptic cytomatrix protein</t>
+          <t>ninein</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982667</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PHC1</t>
+          <t>NSMCE2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>polyhomeotic homolog 1</t>
+          <t>NSE2/MMS21 homolog, SMC5-SMC6 complex SUMO ligase</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982670</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PLAA</t>
+          <t>NUF2</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>phospholipase A2 activating protein</t>
+          <t>NUF2, NDC80 kinetochore complex component</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982673</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PPP1R35</t>
+          <t>PCLO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 35</t>
+          <t>piccolo presynaptic cytomatrix protein</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982675</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>RING1</t>
+          <t>PHC1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ring finger protein 1</t>
+          <t>polyhomeotic homolog 1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982678</t>
         </is>
       </c>
     </row>
@@ -5611,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>RUSC2</t>
+          <t>PLAA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>RUN and SH3 domain containing 2</t>
+          <t>phospholipase A2 activating protein</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5627,6 +6662,11 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982680</t>
         </is>
       </c>
     </row>
@@ -5636,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SMO</t>
+          <t>PPP1R35</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>smoothened, frizzled class receptor</t>
+          <t>protein phosphatase 1 regulatory subunit 35</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5652,6 +6692,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982683</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TCF4</t>
+          <t>RING1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>transcription factor 4</t>
+          <t>ring finger protein 1</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982685</t>
         </is>
       </c>
     </row>
@@ -5686,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TPRKB</t>
+          <t>RUSC2</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TP53RK binding protein</t>
+          <t>RUN and SH3 domain containing 2</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6752,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982688</t>
         </is>
       </c>
     </row>
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRAPPC10</t>
+          <t>SMO</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 10</t>
+          <t>smoothened, frizzled class receptor</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982690</t>
         </is>
       </c>
     </row>
@@ -5736,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRMT1</t>
+          <t>TCF4</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>tRNA methyltransferase 1</t>
+          <t>transcription factor 4</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5752,6 +6812,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982693</t>
         </is>
       </c>
     </row>
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TUBGCP3</t>
+          <t>TPRKB</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>tubulin gamma complex associated protein 3</t>
+          <t>TP53RK binding protein</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982695</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>WDFY3</t>
+          <t>TRAPPC10</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>WD repeat and FYVE domain containing 3</t>
+          <t>trafficking protein particle complex 10</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982698</t>
         </is>
       </c>
     </row>
@@ -5811,12 +6886,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZNHIT3</t>
+          <t>TRMT1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>zinc finger HIT-type containing 3</t>
+          <t>tRNA methyltransferase 1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5827,6 +6902,11 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982700</t>
         </is>
       </c>
     </row>
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ZPR1</t>
+          <t>TUBGCP3</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ZPR1 zinc finger</t>
+          <t>tubulin gamma complex associated protein 3</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982703</t>
         </is>
       </c>
     </row>
@@ -5861,22 +6946,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AKT3</t>
+          <t>WDFY3</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>AKT serine/threonine kinase 3</t>
+          <t>WD repeat and FYVE domain containing 3</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982705</t>
         </is>
       </c>
     </row>
@@ -5886,22 +6976,27 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BRD4</t>
+          <t>ZNHIT3</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>bromodomain containing 4</t>
+          <t>zinc finger HIT-type containing 3</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982708</t>
         </is>
       </c>
     </row>
@@ -5911,22 +7006,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CTSF</t>
+          <t>ZPR1</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>cathepsin F</t>
+          <t>ZPR1 zinc finger</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982710</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DYNC1I2</t>
+          <t>AKT3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>dynein cytoplasmic 1 intermediate chain 2</t>
+          <t>AKT serine/threonine kinase 3</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982713</t>
         </is>
       </c>
     </row>
@@ -5961,22 +7066,117 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>BRD4</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>bromodomain containing 4</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982715</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CTSF</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>cathepsin F</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982718</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DYNC1I2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>dynein cytoplasmic 1 intermediate chain 2</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982721</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>MECP2</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>methyl-CpG binding protein 2</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Severe microcephaly</t>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:09.982723</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Severe microcephaly.xlsx
+++ b/data/panelapp/uk/Severe microcephaly.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982132</t>
+          <t>2021-10-05 14:22:40.899095</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982144</t>
+          <t>2021-10-05 14:22:40.899103</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982147</t>
+          <t>2021-10-05 14:22:40.899106</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982150</t>
+          <t>2021-10-05 14:22:40.899109</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982153</t>
+          <t>2021-10-05 14:22:40.899112</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982156</t>
+          <t>2021-10-05 14:22:40.899115</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982158</t>
+          <t>2021-10-05 14:22:40.899118</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982161</t>
+          <t>2021-10-05 14:22:40.899120</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982163</t>
+          <t>2021-10-05 14:22:40.899123</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982166</t>
+          <t>2021-10-05 14:22:40.899126</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982168</t>
+          <t>2021-10-05 14:22:40.899128</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982171</t>
+          <t>2021-10-05 14:22:40.899131</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982174</t>
+          <t>2021-10-05 14:22:40.899133</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982176</t>
+          <t>2021-10-05 14:22:40.899136</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982179</t>
+          <t>2021-10-05 14:22:40.899138</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982182</t>
+          <t>2021-10-05 14:22:40.899141</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982185</t>
+          <t>2021-10-05 14:22:40.899144</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982187</t>
+          <t>2021-10-05 14:22:40.899147</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982190</t>
+          <t>2021-10-05 14:22:40.899149</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982193</t>
+          <t>2021-10-05 14:22:40.899152</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982195</t>
+          <t>2021-10-05 14:22:40.899154</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982198</t>
+          <t>2021-10-05 14:22:40.899157</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982200</t>
+          <t>2021-10-05 14:22:40.899159</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982203</t>
+          <t>2021-10-05 14:22:40.899162</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982205</t>
+          <t>2021-10-05 14:22:40.899165</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982208</t>
+          <t>2021-10-05 14:22:40.899168</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982211</t>
+          <t>2021-10-05 14:22:40.899170</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982213</t>
+          <t>2021-10-05 14:22:40.899173</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982216</t>
+          <t>2021-10-05 14:22:40.899175</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982218</t>
+          <t>2021-10-05 14:22:40.899178</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982221</t>
+          <t>2021-10-05 14:22:40.899181</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982223</t>
+          <t>2021-10-05 14:22:40.899183</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982226</t>
+          <t>2021-10-05 14:22:40.899186</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982229</t>
+          <t>2021-10-05 14:22:40.899189</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982231</t>
+          <t>2021-10-05 14:22:40.899191</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982234</t>
+          <t>2021-10-05 14:22:40.899194</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982236</t>
+          <t>2021-10-05 14:22:40.899196</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982239</t>
+          <t>2021-10-05 14:22:40.899199</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982241</t>
+          <t>2021-10-05 14:22:40.899201</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982244</t>
+          <t>2021-10-05 14:22:40.899204</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982247</t>
+          <t>2021-10-05 14:22:40.899207</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982249</t>
+          <t>2021-10-05 14:22:40.899209</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982252</t>
+          <t>2021-10-05 14:22:40.899212</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982254</t>
+          <t>2021-10-05 14:22:40.899214</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982257</t>
+          <t>2021-10-05 14:22:40.899217</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982259</t>
+          <t>2021-10-05 14:22:40.899219</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982262</t>
+          <t>2021-10-05 14:22:40.899222</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982265</t>
+          <t>2021-10-05 14:22:40.899224</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982267</t>
+          <t>2021-10-05 14:22:40.899227</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982270</t>
+          <t>2021-10-05 14:22:40.899229</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982272</t>
+          <t>2021-10-05 14:22:40.899232</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982275</t>
+          <t>2021-10-05 14:22:40.899234</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982277</t>
+          <t>2021-10-05 14:22:40.899238</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982280</t>
+          <t>2021-10-05 14:22:40.899240</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982283</t>
+          <t>2021-10-05 14:22:40.899243</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982285</t>
+          <t>2021-10-05 14:22:40.899245</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982288</t>
+          <t>2021-10-05 14:22:40.899248</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982291</t>
+          <t>2021-10-05 14:22:40.899250</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982293</t>
+          <t>2021-10-05 14:22:40.899253</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982296</t>
+          <t>2021-10-05 14:22:40.899255</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982298</t>
+          <t>2021-10-05 14:22:40.899258</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982301</t>
+          <t>2021-10-05 14:22:40.899261</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982303</t>
+          <t>2021-10-05 14:22:40.899263</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982306</t>
+          <t>2021-10-05 14:22:40.899266</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982309</t>
+          <t>2021-10-05 14:22:40.899269</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982312</t>
+          <t>2021-10-05 14:22:40.899272</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982315</t>
+          <t>2021-10-05 14:22:40.899275</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982318</t>
+          <t>2021-10-05 14:22:40.899277</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982320</t>
+          <t>2021-10-05 14:22:40.899280</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982323</t>
+          <t>2021-10-05 14:22:40.899282</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982325</t>
+          <t>2021-10-05 14:22:40.899285</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982328</t>
+          <t>2021-10-05 14:22:40.899287</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982330</t>
+          <t>2021-10-05 14:22:40.899290</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982333</t>
+          <t>2021-10-05 14:22:40.899292</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982336</t>
+          <t>2021-10-05 14:22:40.899295</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982338</t>
+          <t>2021-10-05 14:22:40.899298</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982342</t>
+          <t>2021-10-05 14:22:40.899302</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982346</t>
+          <t>2021-10-05 14:22:40.899305</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982348</t>
+          <t>2021-10-05 14:22:40.899308</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982351</t>
+          <t>2021-10-05 14:22:40.899311</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982353</t>
+          <t>2021-10-05 14:22:40.899313</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982356</t>
+          <t>2021-10-05 14:22:40.899316</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982358</t>
+          <t>2021-10-05 14:22:40.899318</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982361</t>
+          <t>2021-10-05 14:22:40.899321</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982363</t>
+          <t>2021-10-05 14:22:40.899323</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982366</t>
+          <t>2021-10-05 14:22:40.899326</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982368</t>
+          <t>2021-10-05 14:22:40.899328</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982371</t>
+          <t>2021-10-05 14:22:40.899331</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982373</t>
+          <t>2021-10-05 14:22:40.899333</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982376</t>
+          <t>2021-10-05 14:22:40.899336</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982378</t>
+          <t>2021-10-05 14:22:40.899338</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982381</t>
+          <t>2021-10-05 14:22:40.899341</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982385</t>
+          <t>2021-10-05 14:22:40.899345</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982387</t>
+          <t>2021-10-05 14:22:40.899348</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982390</t>
+          <t>2021-10-05 14:22:40.899351</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982393</t>
+          <t>2021-10-05 14:22:40.899353</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982395</t>
+          <t>2021-10-05 14:22:40.899356</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982398</t>
+          <t>2021-10-05 14:22:40.899359</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982400</t>
+          <t>2021-10-05 14:22:40.899361</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982403</t>
+          <t>2021-10-05 14:22:40.899364</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982405</t>
+          <t>2021-10-05 14:22:40.899367</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982408</t>
+          <t>2021-10-05 14:22:40.899369</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982410</t>
+          <t>2021-10-05 14:22:40.899372</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982413</t>
+          <t>2021-10-05 14:22:40.899374</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982415</t>
+          <t>2021-10-05 14:22:40.899377</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982418</t>
+          <t>2021-10-05 14:22:40.899379</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982420</t>
+          <t>2021-10-05 14:22:40.899382</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982423</t>
+          <t>2021-10-05 14:22:40.899385</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982427</t>
+          <t>2021-10-05 14:22:40.899389</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982430</t>
+          <t>2021-10-05 14:22:40.899393</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982433</t>
+          <t>2021-10-05 14:22:40.899395</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982435</t>
+          <t>2021-10-05 14:22:40.899398</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982438</t>
+          <t>2021-10-05 14:22:40.899400</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982440</t>
+          <t>2021-10-05 14:22:40.899403</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982443</t>
+          <t>2021-10-05 14:22:40.899405</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982445</t>
+          <t>2021-10-05 14:22:40.899408</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982448</t>
+          <t>2021-10-05 14:22:40.899411</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982450</t>
+          <t>2021-10-05 14:22:40.899414</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982453</t>
+          <t>2021-10-05 14:22:40.899416</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982455</t>
+          <t>2021-10-05 14:22:40.899419</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982458</t>
+          <t>2021-10-05 14:22:40.899422</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982460</t>
+          <t>2021-10-05 14:22:40.899424</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982463</t>
+          <t>2021-10-05 14:22:40.899427</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982465</t>
+          <t>2021-10-05 14:22:40.899429</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982468</t>
+          <t>2021-10-05 14:22:40.899432</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982470</t>
+          <t>2021-10-05 14:22:40.899435</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982473</t>
+          <t>2021-10-05 14:22:40.899437</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982475</t>
+          <t>2021-10-05 14:22:40.899440</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982480</t>
+          <t>2021-10-05 14:22:40.899445</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982483</t>
+          <t>2021-10-05 14:22:40.899448</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982485</t>
+          <t>2021-10-05 14:22:40.899451</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982488</t>
+          <t>2021-10-05 14:22:40.899453</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982490</t>
+          <t>2021-10-05 14:22:40.899456</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982493</t>
+          <t>2021-10-05 14:22:40.899458</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982495</t>
+          <t>2021-10-05 14:22:40.899461</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982498</t>
+          <t>2021-10-05 14:22:40.899464</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982500</t>
+          <t>2021-10-05 14:22:40.899466</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982503</t>
+          <t>2021-10-05 14:22:40.899469</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982505</t>
+          <t>2021-10-05 14:22:40.899472</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982508</t>
+          <t>2021-10-05 14:22:40.899474</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982511</t>
+          <t>2021-10-05 14:22:40.899477</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982513</t>
+          <t>2021-10-05 14:22:40.899479</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982516</t>
+          <t>2021-10-05 14:22:40.899482</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982518</t>
+          <t>2021-10-05 14:22:40.899485</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982521</t>
+          <t>2021-10-05 14:22:40.899487</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982523</t>
+          <t>2021-10-05 14:22:40.899490</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982526</t>
+          <t>2021-10-05 14:22:40.899492</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982529</t>
+          <t>2021-10-05 14:22:40.899495</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982531</t>
+          <t>2021-10-05 14:22:40.899498</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982534</t>
+          <t>2021-10-05 14:22:40.899501</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982537</t>
+          <t>2021-10-05 14:22:40.899503</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982540</t>
+          <t>2021-10-05 14:22:40.899506</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982542</t>
+          <t>2021-10-05 14:22:40.899508</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982545</t>
+          <t>2021-10-05 14:22:40.899511</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982547</t>
+          <t>2021-10-05 14:22:40.899513</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982550</t>
+          <t>2021-10-05 14:22:40.899516</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982552</t>
+          <t>2021-10-05 14:22:40.899519</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982555</t>
+          <t>2021-10-05 14:22:40.899521</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982557</t>
+          <t>2021-10-05 14:22:40.899524</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982560</t>
+          <t>2021-10-05 14:22:40.899527</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982562</t>
+          <t>2021-10-05 14:22:40.899529</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982565</t>
+          <t>2021-10-05 14:22:40.899532</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982568</t>
+          <t>2021-10-05 14:22:40.899534</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982570</t>
+          <t>2021-10-05 14:22:40.899537</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982573</t>
+          <t>2021-10-05 14:22:40.899540</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982575</t>
+          <t>2021-10-05 14:22:40.899542</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982578</t>
+          <t>2021-10-05 14:22:40.899545</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982580</t>
+          <t>2021-10-05 14:22:40.899547</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982583</t>
+          <t>2021-10-05 14:22:40.899550</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982585</t>
+          <t>2021-10-05 14:22:40.899552</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982587</t>
+          <t>2021-10-05 14:22:40.899555</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982590</t>
+          <t>2021-10-05 14:22:40.899557</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982594</t>
+          <t>2021-10-05 14:22:40.899561</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982597</t>
+          <t>2021-10-05 14:22:40.899564</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982599</t>
+          <t>2021-10-05 14:22:40.899566</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982602</t>
+          <t>2021-10-05 14:22:40.899569</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982604</t>
+          <t>2021-10-05 14:22:40.899571</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982606</t>
+          <t>2021-10-05 14:22:40.899574</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982609</t>
+          <t>2021-10-05 14:22:40.899576</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982611</t>
+          <t>2021-10-05 14:22:40.899579</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982614</t>
+          <t>2021-10-05 14:22:40.899581</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982616</t>
+          <t>2021-10-05 14:22:40.899584</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982619</t>
+          <t>2021-10-05 14:22:40.899586</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982621</t>
+          <t>2021-10-05 14:22:40.899588</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982624</t>
+          <t>2021-10-05 14:22:40.899591</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982627</t>
+          <t>2021-10-05 14:22:40.899594</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982629</t>
+          <t>2021-10-05 14:22:40.899596</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982632</t>
+          <t>2021-10-05 14:22:40.899598</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982634</t>
+          <t>2021-10-05 14:22:40.899601</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982637</t>
+          <t>2021-10-05 14:22:40.899603</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982639</t>
+          <t>2021-10-05 14:22:40.899606</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982642</t>
+          <t>2021-10-05 14:22:40.899608</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982644</t>
+          <t>2021-10-05 14:22:40.899611</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982647</t>
+          <t>2021-10-05 14:22:40.899613</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982649</t>
+          <t>2021-10-05 14:22:40.899616</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982652</t>
+          <t>2021-10-05 14:22:40.899618</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982655</t>
+          <t>2021-10-05 14:22:40.899621</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982657</t>
+          <t>2021-10-05 14:22:40.899623</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982660</t>
+          <t>2021-10-05 14:22:40.899626</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982662</t>
+          <t>2021-10-05 14:22:40.899628</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982665</t>
+          <t>2021-10-05 14:22:40.899631</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982667</t>
+          <t>2021-10-05 14:22:40.899634</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982670</t>
+          <t>2021-10-05 14:22:40.899641</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982673</t>
+          <t>2021-10-05 14:22:40.899643</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982675</t>
+          <t>2021-10-05 14:22:40.899646</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982678</t>
+          <t>2021-10-05 14:22:40.899648</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982680</t>
+          <t>2021-10-05 14:22:40.899651</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982683</t>
+          <t>2021-10-05 14:22:40.899653</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982685</t>
+          <t>2021-10-05 14:22:40.899656</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982688</t>
+          <t>2021-10-05 14:22:40.899658</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982690</t>
+          <t>2021-10-05 14:22:40.899661</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982693</t>
+          <t>2021-10-05 14:22:40.899663</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982695</t>
+          <t>2021-10-05 14:22:40.899666</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982698</t>
+          <t>2021-10-05 14:22:40.899669</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982700</t>
+          <t>2021-10-05 14:22:40.899671</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982703</t>
+          <t>2021-10-05 14:22:40.899674</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982705</t>
+          <t>2021-10-05 14:22:40.899677</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982708</t>
+          <t>2021-10-05 14:22:40.899679</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982710</t>
+          <t>2021-10-05 14:22:40.899682</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982713</t>
+          <t>2021-10-05 14:22:40.899684</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982715</t>
+          <t>2021-10-05 14:22:40.899686</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982718</t>
+          <t>2021-10-05 14:22:40.899689</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982721</t>
+          <t>2021-10-05 14:22:40.899691</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,91 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:09.982723</t>
+          <t>2021-10-05 14:22:40.899694</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Severe microcephaly</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.256</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-01T14:36:26.374873Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:40.895790</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/162/?format=json</t>
         </is>
       </c>
     </row>
